--- a/2019/Front 2019.xlsx
+++ b/2019/Front 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/teaching/junior course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/teaching/javascript-junior/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A44F69-22A7-7B47-92F8-1B8C3E4A4A2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E857213B-916E-AC4A-B3E0-CE2EAD47AD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание курса" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
   <si>
     <t>№ п/п</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Взаимодействие SPA с сервером на Nodejs</t>
   </si>
   <si>
-    <t>WebWorker</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>Websoket пишем чат</t>
-  </si>
-  <si>
     <t>lodash, axios, reselect</t>
   </si>
   <si>
@@ -428,9 +422,6 @@
     <t>Андрей</t>
   </si>
   <si>
-    <t>Саша</t>
-  </si>
-  <si>
     <t>Стас</t>
   </si>
   <si>
@@ -446,10 +437,31 @@
     <t>Typescript</t>
   </si>
   <si>
-    <t>Настройка окружени: github, nodejs, create-react-app, postcss</t>
-  </si>
-  <si>
     <t>готово</t>
+  </si>
+  <si>
+    <t>Саша П.</t>
+  </si>
+  <si>
+    <t>Саша И.</t>
+  </si>
+  <si>
+    <t>Света</t>
+  </si>
+  <si>
+    <t>WebWorker, service workers</t>
+  </si>
+  <si>
+    <t>нет только конспекта</t>
+  </si>
+  <si>
+    <t>есть только source</t>
+  </si>
+  <si>
+    <t>Websoket пишем чат, защита от xss атак</t>
+  </si>
+  <si>
+    <t>Настройка окружени: github, nodejs, create-react-app, webpack</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +584,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -787,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,6 +876,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1263,58 +1307,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
+      <c r="A1" s="50"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
+      <c r="A2" s="50"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
+      <c r="A3" s="50"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="50"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="50"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="50"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="50"/>
     </row>
     <row r="8" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="50"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="50"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="50"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="50"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="50"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1330,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1344,62 +1388,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="53"/>
       <c r="H3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="55"/>
+      <c r="A4" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="63"/>
       <c r="C4" s="4">
         <f>SUM(C5:C7)</f>
         <v>3</v>
@@ -1443,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1459,15 +1503,21 @@
         <v>3</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -1484,10 +1534,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="57"/>
+      <c r="A8" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="65"/>
       <c r="C8" s="8">
         <f>SUM(C9:C15)</f>
         <v>9</v>
@@ -1505,15 +1555,15 @@
         <v>39</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -1531,10 +1581,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -1549,13 +1599,16 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="H10" s="46" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -1573,7 +1626,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>19</v>
@@ -1591,13 +1644,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="H12" s="48" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="19">
         <v>1</v>
@@ -1615,10 +1671,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
@@ -1636,10 +1692,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -1656,10 +1712,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="57"/>
+      <c r="A16" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="65"/>
       <c r="C16" s="18">
         <f>SUM(C17:C22)</f>
         <v>8</v>
@@ -1679,7 +1735,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>20</v>
@@ -1699,10 +1755,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="16">
         <v>2</v>
@@ -1719,10 +1775,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
@@ -1739,10 +1795,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="19">
         <v>1</v>
@@ -1759,10 +1815,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="21">
         <v>1</v>
@@ -1779,10 +1835,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
@@ -1798,10 +1854,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="57"/>
+      <c r="A23" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="65"/>
       <c r="C23" s="8">
         <f>SUM(C24:C24)</f>
         <v>2</v>
@@ -1821,10 +1877,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1841,10 +1897,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="57"/>
+      <c r="A25" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="65"/>
       <c r="C25" s="8">
         <f>SUM(C26:C28)</f>
         <v>6</v>
@@ -1866,8 +1922,8 @@
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>45</v>
+      <c r="B26" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1926,10 +1982,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="57"/>
+      <c r="A29" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="65"/>
       <c r="C29" s="8">
         <f>SUM(C30:C32)</f>
         <v>6</v>
@@ -2011,17 +2067,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="57"/>
+      <c r="A33" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="65"/>
       <c r="C33" s="8">
         <f>SUM(C34:C37)</f>
         <v>6</v>
       </c>
       <c r="D33" s="8">
         <f>SUM(D34:D37)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="8">
         <f>SUM(E34:E37)</f>
@@ -2029,36 +2085,36 @@
       </c>
       <c r="F33" s="5">
         <f>SUM(C33:E33)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
+      <c r="A34" s="49" t="s">
+        <v>54</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
       </c>
       <c r="D34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>56</v>
+      <c r="A35" s="47" t="s">
+        <v>55</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C35" s="16">
         <v>1</v>
@@ -2075,11 +2131,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
+      <c r="A36" s="49" t="s">
+        <v>56</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="6">
         <v>2</v>
@@ -2097,10 +2153,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
@@ -2117,10 +2173,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="8">
         <v>8</v>
       </c>
@@ -2137,7 +2193,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <f>SUM(C4,C8,C16,C23,C25,C29,C33)</f>
@@ -2145,7 +2201,7 @@
       </c>
       <c r="D39">
         <f>SUM(D4,D8,D16,D23,D25,D29,D33)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2185,92 +2241,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -2280,232 +2336,232 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/2019/Front 2019.xlsx
+++ b/2019/Front 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/teaching/javascript-junior/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E857213B-916E-AC4A-B3E0-CE2EAD47AD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D99AA0-1104-DD41-9B90-F89F6FE965EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание курса" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t>№ п/п</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Настройка окружени: github, nodejs, create-react-app, webpack</t>
+  </si>
+  <si>
+    <t>Андрей Б.</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +611,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF39FFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -823,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +896,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,27 +941,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF39FFE0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1374,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1388,44 +1404,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="53"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="58"/>
       <c r="H3" s="30" t="s">
         <v>130</v>
       </c>
@@ -1440,10 +1456,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="4">
         <f>SUM(C5:C7)</f>
         <v>3</v>
@@ -1511,6 +1527,9 @@
       <c r="J6" s="44" t="s">
         <v>139</v>
       </c>
+      <c r="K6" s="66" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
@@ -1534,10 +1553,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8">
         <f>SUM(C9:C15)</f>
         <v>9</v>
@@ -1712,10 +1731,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="18">
         <f>SUM(C17:C22)</f>
         <v>8</v>
@@ -1854,10 +1873,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="8">
         <f>SUM(C24:C24)</f>
         <v>2</v>
@@ -1879,7 +1898,7 @@
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="67" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="6">
@@ -1897,10 +1916,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="8">
         <f>SUM(C26:C28)</f>
         <v>6</v>
@@ -1982,10 +2001,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="8">
         <f>SUM(C30:C32)</f>
         <v>6</v>
@@ -2067,10 +2086,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="65"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="8">
         <f>SUM(C34:C37)</f>
         <v>6</v>
@@ -2173,10 +2192,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="61"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="8">
         <v>8</v>
       </c>
@@ -2206,6 +2225,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
@@ -2214,12 +2239,6 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
